--- a/data-raw/xlsx/tab_iva.xlsx
+++ b/data-raw/xlsx/tab_iva.xlsx
@@ -535,10 +535,10 @@
         <v>7.3</v>
       </c>
       <c r="N2">
-        <v>327930</v>
+        <v>64743</v>
       </c>
       <c r="O2">
-        <v>2115.671027353399</v>
+        <v>10716.09285945971</v>
       </c>
       <c r="P2">
         <v>4.8</v>
@@ -595,10 +595,10 @@
         <v>7.6</v>
       </c>
       <c r="N3">
-        <v>330399</v>
+        <v>64970</v>
       </c>
       <c r="O3">
-        <v>2099.861077061371</v>
+        <v>10678.65168539326</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -655,10 +655,10 @@
         <v>7.3</v>
       </c>
       <c r="N4">
-        <v>333188</v>
+        <v>65232</v>
       </c>
       <c r="O4">
-        <v>2082.283875769836</v>
+        <v>10635.76158940397</v>
       </c>
       <c r="R4">
         <v>2.5</v>
@@ -715,10 +715,10 @@
         <v>7.199999999999999</v>
       </c>
       <c r="N5">
-        <v>336007</v>
+        <v>65496</v>
       </c>
       <c r="O5">
-        <v>2064.814125896187</v>
+        <v>10592.89116892635</v>
       </c>
       <c r="S5">
         <v>3.2</v>
@@ -775,10 +775,10 @@
         <v>9.9</v>
       </c>
       <c r="N6">
-        <v>338854</v>
+        <v>65761</v>
       </c>
       <c r="O6">
-        <v>2047.465870256807</v>
+        <v>10550.20452851994</v>
       </c>
       <c r="T6">
         <v>4.1</v>
@@ -835,10 +835,10 @@
         <v>9.9</v>
       </c>
       <c r="N7">
-        <v>341728</v>
+        <v>66027</v>
       </c>
       <c r="O7">
-        <v>2030.246277741362</v>
+        <v>10507.70139488391</v>
       </c>
       <c r="U7">
         <v>3.6</v>
@@ -895,10 +895,10 @@
         <v>10.4</v>
       </c>
       <c r="N8">
-        <v>344084</v>
+        <v>66275</v>
       </c>
       <c r="O8">
-        <v>2016.344846025971</v>
+        <v>10468.38174273859</v>
       </c>
       <c r="V8">
         <v>3.5</v>
@@ -955,10 +955,10 @@
         <v>11.1</v>
       </c>
       <c r="N9">
-        <v>346458</v>
+        <v>66523</v>
       </c>
       <c r="O9">
-        <v>2002.528445006321</v>
+        <v>10429.35526058656</v>
       </c>
       <c r="W9">
         <v>3.3</v>
@@ -1015,10 +1015,10 @@
         <v>11.1</v>
       </c>
       <c r="N10">
-        <v>348853</v>
+        <v>66772</v>
       </c>
       <c r="O10">
-        <v>1988.780374541712</v>
+        <v>10390.463068352</v>
       </c>
       <c r="X10">
         <v>3.8</v>
@@ -1075,10 +1075,10 @@
         <v>11.1</v>
       </c>
       <c r="N11">
-        <v>351266</v>
+        <v>67024</v>
       </c>
       <c r="O11">
-        <v>1975.118571111352</v>
+        <v>10351.39651468131</v>
       </c>
       <c r="Y11">
         <v>3.2</v>
@@ -1135,10 +1135,10 @@
         <v>10.49462365591398</v>
       </c>
       <c r="N12">
-        <v>4106595</v>
+        <v>1994369</v>
       </c>
       <c r="O12">
-        <v>1658.740635489986</v>
+        <v>3415.504352504476</v>
       </c>
       <c r="P12">
         <v>3.3</v>
@@ -1195,10 +1195,10 @@
         <v>10.95698924731183</v>
       </c>
       <c r="N13">
-        <v>4148498</v>
+        <v>2012080</v>
       </c>
       <c r="O13">
-        <v>1641.986087494799</v>
+        <v>3385.439942745815</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -1255,10 +1255,10 @@
         <v>11.54838709677419</v>
       </c>
       <c r="N14">
-        <v>4195731</v>
+        <v>2032001</v>
       </c>
       <c r="O14">
-        <v>1623.501601985447</v>
+        <v>3352.25031877445</v>
       </c>
       <c r="R14">
         <v>2.6</v>
@@ -1315,10 +1315,10 @@
         <v>10.68817204301075</v>
       </c>
       <c r="N15">
-        <v>4243542</v>
+        <v>2052147</v>
       </c>
       <c r="O15">
-        <v>1605.209987317199</v>
+        <v>3319.341158308835</v>
       </c>
       <c r="S15">
         <v>2.5</v>
@@ -1375,10 +1375,10 @@
         <v>11.66666666666667</v>
       </c>
       <c r="N16">
-        <v>4291956</v>
+        <v>2072536</v>
       </c>
       <c r="O16">
-        <v>1587.102943273417</v>
+        <v>3286.686455627309</v>
       </c>
       <c r="T16">
         <v>3.2</v>
@@ -1435,10 +1435,10 @@
         <v>11.66666666666667</v>
       </c>
       <c r="N17">
-        <v>4340967</v>
+        <v>2093154</v>
       </c>
       <c r="O17">
-        <v>1569.184009000759</v>
+        <v>3254.31191398244</v>
       </c>
       <c r="U17">
         <v>3.4</v>
@@ -1495,10 +1495,10 @@
         <v>14.44086021505376</v>
       </c>
       <c r="N18">
-        <v>4384129</v>
+        <v>2110441</v>
       </c>
       <c r="O18">
-        <v>1553.735302952992</v>
+        <v>3227.655262573083</v>
       </c>
       <c r="V18">
         <v>3.4</v>
@@ -1555,10 +1555,10 @@
         <v>14.68817204301075</v>
       </c>
       <c r="N19">
-        <v>4427766</v>
+        <v>2127893</v>
       </c>
       <c r="O19">
-        <v>1538.422762178489</v>
+        <v>3201.183518156223</v>
       </c>
       <c r="W19">
         <v>3.1</v>
@@ -1615,10 +1615,10 @@
         <v>17.32258064516129</v>
       </c>
       <c r="N20">
-        <v>4471871</v>
+        <v>2145511</v>
       </c>
       <c r="O20">
-        <v>1523.249664402216</v>
+        <v>3174.896796147864</v>
       </c>
       <c r="X20">
         <v>3.4</v>
@@ -1675,10 +1675,10 @@
         <v>17.48387096774194</v>
       </c>
       <c r="N21">
-        <v>4516451</v>
+        <v>2163292</v>
       </c>
       <c r="O21">
-        <v>1508.214303664537</v>
+        <v>3148.800994040564</v>
       </c>
       <c r="Y21">
         <v>3.4</v>
@@ -1735,10 +1735,10 @@
         <v>4.666666666666667</v>
       </c>
       <c r="N22">
-        <v>401388</v>
+        <v>281779</v>
       </c>
       <c r="O22">
-        <v>8406.708720739036</v>
+        <v>11975.17203198251</v>
       </c>
       <c r="P22">
         <v>3.5</v>
@@ -1795,10 +1795,10 @@
         <v>5.666666666666666</v>
       </c>
       <c r="N23">
-        <v>406942</v>
+        <v>285799</v>
       </c>
       <c r="O23">
-        <v>8291.972811850337</v>
+        <v>11806.73130416831</v>
       </c>
       <c r="Q23">
         <v>2.8</v>
@@ -1855,10 +1855,10 @@
         <v>5.487179487179487</v>
       </c>
       <c r="N24">
-        <v>413339</v>
+        <v>290429</v>
       </c>
       <c r="O24">
-        <v>8163.642917798708</v>
+        <v>11618.50917091613</v>
       </c>
       <c r="R24">
         <v>3</v>
@@ -1915,10 +1915,10 @@
         <v>7.025641025641026</v>
       </c>
       <c r="N25">
-        <v>419868</v>
+        <v>295135</v>
       </c>
       <c r="O25">
-        <v>8036.697247706423</v>
+        <v>11433.24919104816</v>
       </c>
       <c r="S25">
         <v>3</v>
@@ -1975,10 +1975,10 @@
         <v>9.717948717948719</v>
       </c>
       <c r="N26">
-        <v>426533</v>
+        <v>299920</v>
       </c>
       <c r="O26">
-        <v>7911.115904279389</v>
+        <v>11250.84022405975</v>
       </c>
       <c r="T26">
         <v>3.4</v>
@@ -2035,10 +2035,10 @@
         <v>9.717948717948719</v>
       </c>
       <c r="N27">
-        <v>433329</v>
+        <v>304785</v>
       </c>
       <c r="O27">
-        <v>7787.044024286397</v>
+        <v>11071.2535065702</v>
       </c>
       <c r="U27">
         <v>3.1</v>
@@ -2095,10 +2095,10 @@
         <v>7.692307692307693</v>
       </c>
       <c r="N28">
-        <v>439061</v>
+        <v>308843</v>
       </c>
       <c r="O28">
-        <v>7685.383124440567</v>
+        <v>10925.78429817091</v>
       </c>
       <c r="V28">
         <v>2.9</v>
@@ -2155,10 +2155,10 @@
         <v>7.692307692307693</v>
       </c>
       <c r="N29">
-        <v>444883</v>
+        <v>312955</v>
       </c>
       <c r="O29">
-        <v>7584.807691010895</v>
+        <v>10782.22747679379</v>
       </c>
       <c r="W29">
         <v>3.3</v>
@@ -2215,10 +2215,10 @@
         <v>8.333333333333332</v>
       </c>
       <c r="N30">
-        <v>450799</v>
+        <v>317121</v>
       </c>
       <c r="O30">
-        <v>7485.26948817544</v>
+        <v>10640.58198605579</v>
       </c>
       <c r="X30">
         <v>3.1</v>
@@ -2275,10 +2275,10 @@
         <v>8.435897435897436</v>
       </c>
       <c r="N31">
-        <v>456815</v>
+        <v>321346</v>
       </c>
       <c r="O31">
-        <v>7386.692643630354</v>
+        <v>10500.68150840527</v>
       </c>
       <c r="Y31">
         <v>3.1</v>
@@ -2335,10 +2335,10 @@
         <v>27.47727272727273</v>
       </c>
       <c r="N32">
-        <v>309750</v>
+        <v>1107913</v>
       </c>
       <c r="O32">
-        <v>14151.74818401937</v>
+        <v>3956.54171401545</v>
       </c>
       <c r="P32">
         <v>3</v>
@@ -2395,10 +2395,10 @@
         <v>28.11363636363636</v>
       </c>
       <c r="N33">
-        <v>311360</v>
+        <v>1118164</v>
       </c>
       <c r="O33">
-        <v>14078.57142857143</v>
+        <v>3920.269298600205</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -2455,10 +2455,10 @@
         <v>28.97727272727273</v>
       </c>
       <c r="N34">
-        <v>313213</v>
+        <v>1129816</v>
       </c>
       <c r="O34">
-        <v>13995.28116649053</v>
+        <v>3879.83884101482</v>
       </c>
       <c r="R34">
         <v>2.5</v>
@@ -2515,10 +2515,10 @@
         <v>29.20454545454546</v>
       </c>
       <c r="N35">
-        <v>315088</v>
+        <v>1141626</v>
       </c>
       <c r="O35">
-        <v>13911.99918752856</v>
+        <v>3839.702319323491</v>
       </c>
       <c r="S35">
         <v>2.8</v>
@@ -2575,10 +2575,10 @@
         <v>30.63636363636364</v>
       </c>
       <c r="N36">
-        <v>316987</v>
+        <v>1153595</v>
       </c>
       <c r="O36">
-        <v>13828.65543381905</v>
+        <v>3799.863903709707</v>
       </c>
       <c r="T36">
         <v>3.8</v>
@@ -2635,10 +2635,10 @@
         <v>30.63636363636364</v>
       </c>
       <c r="N37">
-        <v>318914</v>
+        <v>1165726</v>
       </c>
       <c r="O37">
-        <v>13745.097424384</v>
+        <v>3760.321035989589</v>
       </c>
       <c r="U37">
         <v>3.8</v>
@@ -2695,10 +2695,10 @@
         <v>25.81818181818182</v>
       </c>
       <c r="N38">
-        <v>320574</v>
+        <v>1175406</v>
       </c>
       <c r="O38">
-        <v>13673.92240169197</v>
+        <v>3729.3530916126</v>
       </c>
       <c r="V38">
         <v>3.4</v>
@@ -2755,10 +2755,10 @@
         <v>32.11363636363637</v>
       </c>
       <c r="N39">
-        <v>322250</v>
+        <v>1185180</v>
       </c>
       <c r="O39">
-        <v>13602.80527540729</v>
+        <v>3698.597681364856</v>
       </c>
       <c r="W39">
         <v>3.4</v>
@@ -2815,10 +2815,10 @@
         <v>37.36363636363637</v>
       </c>
       <c r="N40">
-        <v>323946</v>
+        <v>1195066</v>
       </c>
       <c r="O40">
-        <v>13531.58859809968</v>
+        <v>3668.001599911637</v>
       </c>
       <c r="X40">
         <v>3.4</v>
@@ -2875,10 +2875,10 @@
         <v>37.54545454545454</v>
       </c>
       <c r="N41">
-        <v>325658</v>
+        <v>1205046</v>
       </c>
       <c r="O41">
-        <v>13460.45237641943</v>
+        <v>3637.62379195483</v>
       </c>
       <c r="Y41">
         <v>3.5</v>
@@ -2935,10 +2935,10 @@
         <v>92.26153846153846</v>
       </c>
       <c r="N42">
-        <v>2985100</v>
+        <v>5080199</v>
       </c>
       <c r="O42">
-        <v>1817.088874744565</v>
+        <v>1067.712504962896</v>
       </c>
       <c r="P42">
         <v>4.8</v>
@@ -2995,10 +2995,10 @@
         <v>92.16923076923077</v>
       </c>
       <c r="N43">
-        <v>3023972.5</v>
+        <v>5140157</v>
       </c>
       <c r="O43">
-        <v>1793.730597748491</v>
+        <v>1055.25803978361</v>
       </c>
       <c r="Q43">
         <v>3.6</v>
@@ -3055,10 +3055,10 @@
         <v>82.43076923076923</v>
       </c>
       <c r="N44">
-        <v>3068054.5</v>
+        <v>5208188</v>
       </c>
       <c r="O44">
-        <v>1767.958163715801</v>
+        <v>1041.473925288411</v>
       </c>
       <c r="R44">
         <v>3.4</v>
@@ -3115,10 +3115,10 @@
         <v>82.50769230769231</v>
       </c>
       <c r="N45">
-        <v>3112917</v>
+        <v>5277330</v>
       </c>
       <c r="O45">
-        <v>1742.478838979645</v>
+        <v>1027.828845268346</v>
       </c>
       <c r="S45">
         <v>3.9</v>
@@ -3175,10 +3175,10 @@
         <v>52.43076923076922</v>
       </c>
       <c r="N46">
-        <v>3158540.5</v>
+        <v>5347570</v>
       </c>
       <c r="O46">
-        <v>1717.309624492705</v>
+        <v>1014.328377188143</v>
       </c>
       <c r="T46">
         <v>5.3</v>
@@ -3235,10 +3235,10 @@
         <v>52.43076923076922</v>
       </c>
       <c r="N47">
-        <v>3204978.5</v>
+        <v>5418961</v>
       </c>
       <c r="O47">
-        <v>1692.426953878162</v>
+        <v>1000.96531419953</v>
       </c>
       <c r="U47">
         <v>4.7</v>
@@ -3295,10 +3295,10 @@
         <v>112.4769230769231</v>
       </c>
       <c r="N48">
-        <v>3240623.5</v>
+        <v>5473874</v>
       </c>
       <c r="O48">
-        <v>1673.811227993625</v>
+        <v>990.9237954691687</v>
       </c>
       <c r="V48">
         <v>4</v>
@@ -3355,10 +3355,10 @@
         <v>119.1230769230769</v>
       </c>
       <c r="N49">
-        <v>3276742</v>
+        <v>5529450</v>
       </c>
       <c r="O49">
-        <v>1655.36133146888</v>
+        <v>980.9641103545561</v>
       </c>
       <c r="W49">
         <v>3.9</v>
@@ -3415,10 +3415,10 @@
         <v>131.9076923076923</v>
       </c>
       <c r="N50">
-        <v>3313344.5</v>
+        <v>5585706</v>
       </c>
       <c r="O50">
-        <v>1637.074563179289</v>
+        <v>971.0844072351821</v>
       </c>
       <c r="X50">
         <v>4.2</v>
@@ -3475,10 +3475,10 @@
         <v>136.4153846153846</v>
       </c>
       <c r="N51">
-        <v>3350444</v>
+        <v>5642645</v>
       </c>
       <c r="O51">
-        <v>1618.947220129631</v>
+        <v>961.2853546519407</v>
       </c>
       <c r="Y51">
         <v>4.3</v>
@@ -3535,10 +3535,10 @@
         <v>211.6451612903226</v>
       </c>
       <c r="N52">
-        <v>4728315</v>
+        <v>19521971</v>
       </c>
       <c r="O52">
-        <v>560.2469378626424</v>
+        <v>135.6944951921095</v>
       </c>
       <c r="P52">
         <v>5.3</v>
@@ -3595,10 +3595,10 @@
         <v>213.3870967741936</v>
       </c>
       <c r="N53">
-        <v>4772351</v>
+        <v>19655679</v>
       </c>
       <c r="O53">
-        <v>555.0773612418701</v>
+        <v>134.7714317068365</v>
       </c>
       <c r="Q53">
         <v>4.4</v>
@@ -3655,10 +3655,10 @@
         <v>218.741935483871</v>
       </c>
       <c r="N54">
-        <v>4822123</v>
+        <v>19807067</v>
       </c>
       <c r="O54">
-        <v>549.3480775998456</v>
+        <v>133.7413560523625</v>
       </c>
       <c r="R54">
         <v>3.9</v>
@@ -3715,10 +3715,10 @@
         <v>167.6774193548387</v>
       </c>
       <c r="N55">
-        <v>4872582</v>
+        <v>19959976</v>
       </c>
       <c r="O55">
-        <v>543.6591934214755</v>
+        <v>132.7167928458431</v>
       </c>
       <c r="S55">
         <v>5.6</v>
@@ -3775,10 +3775,10 @@
         <v>205.8387096774194</v>
       </c>
       <c r="N56">
-        <v>4923727</v>
+        <v>20114410</v>
       </c>
       <c r="O56">
-        <v>538.0119572023389</v>
+        <v>131.6978226057836</v>
       </c>
       <c r="T56">
         <v>6.1</v>
@@ -3835,10 +3835,10 @@
         <v>205.8387096774194</v>
       </c>
       <c r="N57">
-        <v>4975576</v>
+        <v>20270404</v>
       </c>
       <c r="O57">
-        <v>532.4054943588441</v>
+        <v>130.6843218319674</v>
       </c>
       <c r="U57">
         <v>6.1</v>
@@ -3895,10 +3895,10 @@
         <v>179</v>
       </c>
       <c r="N58">
-        <v>5020372</v>
+        <v>20404925</v>
       </c>
       <c r="O58">
-        <v>527.6549227826144</v>
+        <v>129.8227756289229</v>
       </c>
       <c r="V58">
         <v>5.4</v>
@@ -3955,10 +3955,10 @@
         <v>185.5806451612903</v>
       </c>
       <c r="N59">
-        <v>5065702</v>
+        <v>20540641</v>
       </c>
       <c r="O59">
-        <v>522.9332479486555</v>
+        <v>128.9650113645431</v>
       </c>
       <c r="W59">
         <v>4.9</v>
@@ -4015,10 +4015,10 @@
         <v>196.6129032258065</v>
       </c>
       <c r="N60">
-        <v>5111561</v>
+        <v>20677541</v>
       </c>
       <c r="O60">
-        <v>518.2416878131748</v>
+        <v>128.1111714395827</v>
       </c>
       <c r="X60">
         <v>5.4</v>
@@ -4075,10 +4075,10 @@
         <v>193.6451612903226</v>
       </c>
       <c r="N61">
-        <v>5157962</v>
+        <v>20815650</v>
       </c>
       <c r="O61">
-        <v>513.5795882172067</v>
+        <v>127.2611712821843</v>
       </c>
       <c r="Y61">
         <v>5.1</v>
@@ -4135,10 +4135,10 @@
         <v>31.48275862068966</v>
       </c>
       <c r="N62">
-        <v>14165034</v>
+        <v>1664136</v>
       </c>
       <c r="O62">
-        <v>345.080710713437</v>
+        <v>2937.308008480076</v>
       </c>
       <c r="P62">
         <v>4.9</v>
@@ -4195,10 +4195,10 @@
         <v>29.89655172413793</v>
       </c>
       <c r="N63">
-        <v>14242370</v>
+        <v>1679243</v>
       </c>
       <c r="O63">
-        <v>343.2069241284983</v>
+        <v>2910.883058616293</v>
       </c>
       <c r="Q63">
         <v>2.7</v>
@@ -4255,10 +4255,10 @@
         <v>29.89655172413793</v>
       </c>
       <c r="N64">
-        <v>14329976</v>
+        <v>1696360</v>
       </c>
       <c r="O64">
-        <v>341.1087359811349</v>
+        <v>2881.51100002358</v>
       </c>
       <c r="R64">
         <v>4.1</v>
@@ -4315,10 +4315,10 @@
         <v>32.48275862068966</v>
       </c>
       <c r="N65">
-        <v>14418211</v>
+        <v>1713741</v>
       </c>
       <c r="O65">
-        <v>339.0212558270925</v>
+        <v>2852.286313976266</v>
       </c>
       <c r="S65">
         <v>4.4</v>
@@ -4375,10 +4375,10 @@
         <v>31.77586206896552</v>
       </c>
       <c r="N66">
-        <v>14507088</v>
+        <v>1731403</v>
       </c>
       <c r="O66">
-        <v>336.944257868981</v>
+        <v>2823.190210482482</v>
       </c>
       <c r="T66">
         <v>4.8</v>
@@ -4435,10 +4435,10 @@
         <v>31.77586206896552</v>
       </c>
       <c r="N67">
-        <v>14596613</v>
+        <v>1749343</v>
       </c>
       <c r="O67">
-        <v>334.8776870360268</v>
+        <v>2794.237608061998</v>
       </c>
       <c r="U67">
         <v>4.7</v>
@@ -4495,10 +4495,10 @@
         <v>33.56896551724138</v>
       </c>
       <c r="N68">
-        <v>14672218</v>
+        <v>1765431</v>
       </c>
       <c r="O68">
-        <v>333.1520837544807</v>
+        <v>2768.77431063576</v>
       </c>
       <c r="V68">
         <v>3.8</v>
@@ -4555,10 +4555,10 @@
         <v>36.29310344827586</v>
       </c>
       <c r="N69">
-        <v>14748281</v>
+        <v>1781727</v>
       </c>
       <c r="O69">
-        <v>331.4338803281549</v>
+        <v>2743.450595966722</v>
       </c>
       <c r="W69">
         <v>4</v>
@@ -4615,10 +4615,10 @@
         <v>32.08620689655172</v>
       </c>
       <c r="N70">
-        <v>14824805</v>
+        <v>1798230</v>
       </c>
       <c r="O70">
-        <v>329.7230553791433</v>
+        <v>2718.272968418945</v>
       </c>
       <c r="X70">
         <v>4.2</v>
@@ -4675,10 +4675,10 @@
         <v>31.84482758620689</v>
       </c>
       <c r="N71">
-        <v>14901793</v>
+        <v>1814949</v>
       </c>
       <c r="O71">
-        <v>328.0195879784399</v>
+        <v>2693.232702406514</v>
       </c>
       <c r="Y71">
         <v>3.9</v>
@@ -4735,10 +4735,10 @@
         <v>10.52173913043478</v>
       </c>
       <c r="N72">
-        <v>773026</v>
+        <v>670526</v>
       </c>
       <c r="O72">
-        <v>5956.146365064047</v>
+        <v>6866.633061208663</v>
       </c>
       <c r="P72">
         <v>3.2</v>
@@ -4795,10 +4795,10 @@
         <v>10.58695652173913</v>
       </c>
       <c r="N73">
-        <v>778086</v>
+        <v>674889</v>
       </c>
       <c r="O73">
-        <v>5917.412728156014</v>
+        <v>6822.241879775785</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -4855,10 +4855,10 @@
         <v>10.91304347826087</v>
       </c>
       <c r="N74">
-        <v>783814</v>
+        <v>679818</v>
       </c>
       <c r="O74">
-        <v>5874.169126859179</v>
+        <v>6772.777419838839</v>
       </c>
       <c r="R74">
         <v>2.2</v>
@@ -4915,10 +4915,10 @@
         <v>10.84782608695652</v>
       </c>
       <c r="N75">
-        <v>789590</v>
+        <v>684788</v>
       </c>
       <c r="O75">
-        <v>5831.198470092073</v>
+        <v>6723.622493384814</v>
       </c>
       <c r="S75">
         <v>2.4</v>
@@ -4975,10 +4975,10 @@
         <v>13.56521739130435</v>
       </c>
       <c r="N76">
-        <v>795410</v>
+        <v>689789</v>
       </c>
       <c r="O76">
-        <v>5788.531700632378</v>
+        <v>6674.87594032378</v>
       </c>
       <c r="T76">
         <v>3.3</v>
@@ -5035,10 +5035,10 @@
         <v>13.56521739130435</v>
       </c>
       <c r="N77">
-        <v>801284</v>
+        <v>694839</v>
       </c>
       <c r="O77">
-        <v>5746.097513490848</v>
+        <v>6626.363805140471</v>
       </c>
       <c r="U77">
         <v>3.3</v>
@@ -5095,10 +5095,10 @@
         <v>12.91304347826087</v>
       </c>
       <c r="N78">
-        <v>806172</v>
+        <v>699044</v>
       </c>
       <c r="O78">
-        <v>5711.257647251456</v>
+        <v>6586.503853834665</v>
       </c>
       <c r="V78">
         <v>3.1</v>
@@ -5155,10 +5155,10 @@
         <v>16.76086956521739</v>
       </c>
       <c r="N79">
-        <v>811091</v>
+        <v>703276</v>
       </c>
       <c r="O79">
-        <v>5676.620749089806</v>
+        <v>6546.869223462766</v>
       </c>
       <c r="W79">
         <v>3.1</v>
@@ -5215,10 +5215,10 @@
         <v>20.76086956521739</v>
       </c>
       <c r="N80">
-        <v>816049</v>
+        <v>707537</v>
       </c>
       <c r="O80">
-        <v>5642.131783753181</v>
+        <v>6507.442013633209</v>
       </c>
       <c r="X80">
         <v>3</v>
@@ -5275,10 +5275,10 @@
         <v>20.56521739130435</v>
       </c>
       <c r="N81">
-        <v>821038</v>
+        <v>711826</v>
       </c>
       <c r="O81">
-        <v>5607.847627028225</v>
+        <v>6468.232405110238</v>
       </c>
       <c r="Y81">
         <v>3.4</v>
@@ -5335,10 +5335,10 @@
         <v>27.09722222222222</v>
       </c>
       <c r="N82">
-        <v>3598573</v>
+        <v>1426363</v>
       </c>
       <c r="O82">
-        <v>1743.931274980388</v>
+        <v>4399.766398876022</v>
       </c>
       <c r="P82">
         <v>3.9</v>
@@ -5395,10 +5395,10 @@
         <v>26.36111111111111</v>
       </c>
       <c r="N83">
-        <v>3629434</v>
+        <v>1437967</v>
       </c>
       <c r="O83">
-        <v>1729.10266449259</v>
+        <v>4364.261488615524</v>
       </c>
       <c r="Q83">
         <v>2.9</v>
@@ -5455,10 +5455,10 @@
         <v>27.20833333333334</v>
       </c>
       <c r="N84">
-        <v>3664457</v>
+        <v>1451155</v>
       </c>
       <c r="O84">
-        <v>1712.576788320889</v>
+        <v>4324.599370845981</v>
       </c>
       <c r="R84">
         <v>3.4</v>
@@ -5515,10 +5515,10 @@
         <v>29.04166666666666</v>
       </c>
       <c r="N85">
-        <v>3699938</v>
+        <v>1464498</v>
       </c>
       <c r="O85">
-        <v>1696.153827442514</v>
+        <v>4285.198067870356</v>
       </c>
       <c r="S85">
         <v>3.2</v>
@@ -5575,10 +5575,10 @@
         <v>32.04166666666667</v>
       </c>
       <c r="N86">
-        <v>3735476</v>
+        <v>1478015</v>
       </c>
       <c r="O86">
-        <v>1680.017218689131</v>
+        <v>4246.008328738207</v>
       </c>
       <c r="T86">
         <v>4.4</v>
@@ -5635,10 +5635,10 @@
         <v>32.04166666666667</v>
       </c>
       <c r="N87">
-        <v>3771460</v>
+        <v>1491700</v>
       </c>
       <c r="O87">
-        <v>1663.987951615555</v>
+        <v>4207.055037876248</v>
       </c>
       <c r="U87">
         <v>4</v>
@@ -5695,10 +5695,10 @@
         <v>32.41666666666666</v>
       </c>
       <c r="N88">
-        <v>3799978</v>
+        <v>1502730</v>
       </c>
       <c r="O88">
-        <v>1651.500087632086</v>
+        <v>4176.175360843265</v>
       </c>
       <c r="V88">
         <v>3.5</v>
@@ -5755,10 +5755,10 @@
         <v>36.54166666666666</v>
       </c>
       <c r="N89">
-        <v>3828771</v>
+        <v>1513867</v>
       </c>
       <c r="O89">
-        <v>1639.080530018641</v>
+        <v>4145.452671866155</v>
       </c>
       <c r="W89">
         <v>3.6</v>
@@ -5815,10 +5815,10 @@
         <v>41.84722222222222</v>
       </c>
       <c r="N90">
-        <v>3857855</v>
+        <v>1525118</v>
       </c>
       <c r="O90">
-        <v>1626.7236586134</v>
+        <v>4114.871111612348</v>
       </c>
       <c r="X90">
         <v>3.7</v>
@@ -5875,10 +5875,10 @@
         <v>40.75</v>
       </c>
       <c r="N91">
-        <v>3887202</v>
+        <v>1536476</v>
       </c>
       <c r="O91">
-        <v>1614.442470445323</v>
+        <v>4084.452995035393</v>
       </c>
       <c r="Y91">
         <v>3.7</v>
@@ -5935,10 +5935,10 @@
         <v>27.94871794871795</v>
       </c>
       <c r="N92">
-        <v>2240056</v>
+        <v>1845410</v>
       </c>
       <c r="O92">
-        <v>1506.369483620052</v>
+        <v>1828.510737451298</v>
       </c>
       <c r="P92">
         <v>5.3</v>
@@ -5995,10 +5995,10 @@
         <v>28.53846153846154</v>
       </c>
       <c r="N93">
-        <v>2265119</v>
+        <v>1865578</v>
       </c>
       <c r="O93">
-        <v>1489.701865553201</v>
+        <v>1808.743456451566</v>
       </c>
       <c r="Q93">
         <v>4.7</v>
@@ -6055,10 +6055,10 @@
         <v>29.76923076923077</v>
       </c>
       <c r="N94">
-        <v>2293831</v>
+        <v>1888666</v>
       </c>
       <c r="O94">
-        <v>1471.055191075541</v>
+        <v>1786.632469690247</v>
       </c>
       <c r="R94">
         <v>4.7</v>
@@ -6115,10 +6115,10 @@
         <v>29.12820512820512</v>
       </c>
       <c r="N95">
-        <v>2322963</v>
+        <v>1912073</v>
       </c>
       <c r="O95">
-        <v>1452.606864594916</v>
+        <v>1764.76107345274</v>
       </c>
       <c r="S95">
         <v>4.6</v>
@@ -6175,10 +6175,10 @@
         <v>29.71794871794872</v>
       </c>
       <c r="N96">
-        <v>2352526</v>
+        <v>1935803</v>
       </c>
       <c r="O96">
-        <v>1434.352691532421</v>
+        <v>1743.127787280007</v>
       </c>
       <c r="T96">
         <v>5.3</v>
@@ -6235,10 +6235,10 @@
         <v>29.71794871794872</v>
       </c>
       <c r="N97">
-        <v>2382514</v>
+        <v>1959857</v>
       </c>
       <c r="O97">
-        <v>1416.29891786575</v>
+        <v>1721.733779556366</v>
       </c>
       <c r="U97">
         <v>4.9</v>
@@ -6295,10 +6295,10 @@
         <v>30.15384615384615</v>
       </c>
       <c r="N98">
-        <v>2406832</v>
+        <v>1980443</v>
       </c>
       <c r="O98">
-        <v>1401.989004633477</v>
+        <v>1703.83696980928</v>
       </c>
       <c r="V98">
         <v>4.2</v>
@@ -6355,10 +6355,10 @@
         <v>40.97435897435898</v>
       </c>
       <c r="N99">
-        <v>2431420</v>
+        <v>2001262</v>
       </c>
       <c r="O99">
-        <v>1387.811237877454</v>
+        <v>1686.112063288065</v>
       </c>
       <c r="W99">
         <v>4.3</v>
@@ -6415,10 +6415,10 @@
         <v>50.33333333333333</v>
       </c>
       <c r="N100">
-        <v>2456291</v>
+        <v>2022325</v>
       </c>
       <c r="O100">
-        <v>1373.759053792893</v>
+        <v>1668.550801676289</v>
       </c>
       <c r="X100">
         <v>4.8</v>
@@ -6475,10 +6475,10 @@
         <v>54.23076923076923</v>
       </c>
       <c r="N101">
-        <v>2481432</v>
+        <v>2043625</v>
       </c>
       <c r="O101">
-        <v>1359.840608164963</v>
+        <v>1651.160070952352</v>
       </c>
       <c r="Y101">
         <v>4.9</v>
@@ -6535,10 +6535,10 @@
         <v>1.432314410480349</v>
       </c>
       <c r="N102">
-        <v>1184937</v>
+        <v>365189</v>
       </c>
       <c r="O102">
-        <v>13999.00247861279</v>
+        <v>45422.87965957353</v>
       </c>
       <c r="P102">
         <v>4.5</v>
@@ -6595,10 +6595,10 @@
         <v>1.441048034934498</v>
       </c>
       <c r="N103">
-        <v>1193857</v>
+        <v>365581</v>
       </c>
       <c r="O103">
-        <v>13894.40778920759</v>
+        <v>45374.17425960321</v>
       </c>
       <c r="Q103">
         <v>2.3</v>
@@ -6655,10 +6655,10 @@
         <v>1.462882096069869</v>
       </c>
       <c r="N104">
-        <v>1204058</v>
+        <v>366034</v>
       </c>
       <c r="O104">
-        <v>13776.6918204937</v>
+        <v>45318.01963752001</v>
       </c>
       <c r="R104">
         <v>3</v>
@@ -6715,10 +6715,10 @@
         <v>1.51528384279476</v>
       </c>
       <c r="N105">
-        <v>1214434</v>
+        <v>366498</v>
       </c>
       <c r="O105">
-        <v>13658.98517334001</v>
+        <v>45260.6453514071</v>
       </c>
       <c r="S105">
         <v>2.9</v>
@@ -6775,10 +6775,10 @@
         <v>1.676855895196506</v>
       </c>
       <c r="N106">
-        <v>1224996</v>
+        <v>366977</v>
       </c>
       <c r="O106">
-        <v>13541.21646111497</v>
+        <v>45201.56849066835</v>
       </c>
       <c r="T106">
         <v>3.5</v>
@@ -6835,10 +6835,10 @@
         <v>1.676855895196506</v>
       </c>
       <c r="N107">
-        <v>1235730</v>
+        <v>367460</v>
       </c>
       <c r="O107">
-        <v>13423.5925323493</v>
+        <v>45142.15424808142</v>
       </c>
       <c r="U107">
         <v>3.1</v>
@@ -6895,10 +6895,10 @@
         <v>1.192139737991266</v>
       </c>
       <c r="N108">
-        <v>1246112</v>
+        <v>368598</v>
       </c>
       <c r="O108">
-        <v>13311.75367864205</v>
+        <v>45002.78352025784</v>
       </c>
       <c r="V108">
         <v>2.7</v>
@@ -6955,10 +6955,10 @@
         <v>1.231441048034934</v>
       </c>
       <c r="N109">
-        <v>1256632</v>
+        <v>369743</v>
       </c>
       <c r="O109">
-        <v>13200.31321818957</v>
+        <v>44863.42134942379</v>
       </c>
       <c r="W109">
         <v>2.5</v>
@@ -7015,10 +7015,10 @@
         <v>4.135371179039302</v>
       </c>
       <c r="N110">
-        <v>1267290</v>
+        <v>370900</v>
       </c>
       <c r="O110">
-        <v>13089.29763511114</v>
+        <v>44723.47263413319</v>
       </c>
       <c r="X110">
         <v>2.9</v>
@@ -7075,10 +7075,10 @@
         <v>4.126637554585153</v>
       </c>
       <c r="N111">
-        <v>1278092</v>
+        <v>372061</v>
       </c>
       <c r="O111">
-        <v>12978.67133195419</v>
+        <v>44583.91500318496</v>
       </c>
       <c r="Y111">
         <v>3</v>
@@ -7135,10 +7135,10 @@
         <v>49.09677419354838</v>
       </c>
       <c r="N112">
-        <v>38388</v>
+        <v>333045</v>
       </c>
       <c r="O112">
-        <v>71471.0847139731</v>
+        <v>8238.021888933928</v>
       </c>
       <c r="P112">
         <v>3.7</v>
@@ -7195,10 +7195,10 @@
         <v>46.74193548387097</v>
       </c>
       <c r="N113">
-        <v>38561</v>
+        <v>334464</v>
       </c>
       <c r="O113">
-        <v>71150.43696999559</v>
+        <v>8203.071182548794</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -7255,10 +7255,10 @@
         <v>45.67741935483871</v>
       </c>
       <c r="N114">
-        <v>38755</v>
+        <v>336083</v>
       </c>
       <c r="O114">
-        <v>70794.27170687653</v>
+        <v>8163.554836156544</v>
       </c>
       <c r="R114">
         <v>3</v>
@@ -7315,10 +7315,10 @@
         <v>45.41935483870968</v>
       </c>
       <c r="N115">
-        <v>38949</v>
+        <v>337707</v>
       </c>
       <c r="O115">
-        <v>70441.65447123161</v>
+        <v>8124.297097780028</v>
       </c>
       <c r="S115">
         <v>3.2</v>
@@ -7375,10 +7375,10 @@
         <v>53.70967741935483</v>
       </c>
       <c r="N116">
-        <v>39145</v>
+        <v>339350</v>
       </c>
       <c r="O116">
-        <v>70088.95133478094</v>
+        <v>8084.962428171504</v>
       </c>
       <c r="T116">
         <v>5.1</v>
@@ -7435,10 +7435,10 @@
         <v>53.70967741935483</v>
       </c>
       <c r="N117">
-        <v>39343</v>
+        <v>341003</v>
       </c>
       <c r="O117">
-        <v>69736.21737030729</v>
+        <v>8045.770858320894</v>
       </c>
       <c r="U117">
         <v>4.7</v>
@@ -7495,10 +7495,10 @@
         <v>50.29032258064517</v>
       </c>
       <c r="N118">
-        <v>39512</v>
+        <v>342313</v>
       </c>
       <c r="O118">
-        <v>69437.94290342175</v>
+        <v>8014.980441876294</v>
       </c>
       <c r="V118">
         <v>4.4</v>
@@ -7555,10 +7555,10 @@
         <v>53.93548387096774</v>
       </c>
       <c r="N119">
-        <v>39680</v>
+        <v>343630</v>
       </c>
       <c r="O119">
-        <v>69143.95161290323</v>
+        <v>7984.262142420627</v>
       </c>
       <c r="W119">
         <v>4.2</v>
@@ -7615,10 +7615,10 @@
         <v>56.7741935483871</v>
       </c>
       <c r="N120">
-        <v>39848</v>
+        <v>344956</v>
       </c>
       <c r="O120">
-        <v>68852.43926922305</v>
+        <v>7953.570890200489</v>
       </c>
       <c r="X120">
         <v>4.3</v>
@@ -7675,10 +7675,10 @@
         <v>55.25806451612902</v>
       </c>
       <c r="N121">
-        <v>40019</v>
+        <v>346293</v>
       </c>
       <c r="O121">
-        <v>68558.23483845174</v>
+        <v>7922.863009070354</v>
       </c>
       <c r="Y121">
         <v>4.3</v>
@@ -7735,10 +7735,10 @@
         <v>32.8</v>
       </c>
       <c r="N122">
-        <v>529404</v>
+        <v>1480575</v>
       </c>
       <c r="O122">
-        <v>5778.180746650951</v>
+        <v>2066.083785015956</v>
       </c>
       <c r="P122">
         <v>3.8</v>
@@ -7795,10 +7795,10 @@
         <v>33.76</v>
       </c>
       <c r="N123">
-        <v>533358.5</v>
+        <v>1492045</v>
       </c>
       <c r="O123">
-        <v>5735.339363673776</v>
+        <v>2050.200898766458</v>
       </c>
       <c r="Q123">
         <v>4.3</v>
@@ -7855,10 +7855,10 @@
         <v>34.5</v>
       </c>
       <c r="N124">
-        <v>537822.5</v>
+        <v>1505014</v>
       </c>
       <c r="O124">
-        <v>5687.735265817254</v>
+        <v>2032.533916628018</v>
       </c>
       <c r="R124">
         <v>3.4</v>
@@ -7915,10 +7915,10 @@
         <v>35.98</v>
       </c>
       <c r="N125">
-        <v>542336</v>
+        <v>1518114</v>
       </c>
       <c r="O125">
-        <v>5640.40004720321</v>
+        <v>2014.994921330019</v>
       </c>
       <c r="S125">
         <v>3.4</v>
@@ -7975,10 +7975,10 @@
         <v>39.42</v>
       </c>
       <c r="N126">
-        <v>546899.5</v>
+        <v>1531345</v>
       </c>
       <c r="O126">
-        <v>5593.334790029978</v>
+        <v>1997.585129412379</v>
       </c>
       <c r="T126">
         <v>4</v>
@@ -8035,10 +8035,10 @@
         <v>39.42</v>
       </c>
       <c r="N127">
-        <v>551512.5</v>
+        <v>1544705</v>
       </c>
       <c r="O127">
-        <v>5546.550622152717</v>
+        <v>1980.308214189764</v>
       </c>
       <c r="U127">
         <v>3.9</v>
@@ -8095,10 +8095,10 @@
         <v>41.24</v>
       </c>
       <c r="N128">
-        <v>555466.5</v>
+        <v>1555463</v>
       </c>
       <c r="O128">
-        <v>5507.068383061805</v>
+        <v>1966.611870549155</v>
       </c>
       <c r="V128">
         <v>4</v>
@@ -8155,10 +8155,10 @@
         <v>39.56</v>
       </c>
       <c r="N129">
-        <v>559455</v>
+        <v>1566306</v>
       </c>
       <c r="O129">
-        <v>5467.807062230206</v>
+        <v>1952.997690106531</v>
       </c>
       <c r="W129">
         <v>3.9</v>
@@ -8215,10 +8215,10 @@
         <v>45.96</v>
       </c>
       <c r="N130">
-        <v>563482.5</v>
+        <v>1577236</v>
       </c>
       <c r="O130">
-        <v>5428.725825558025</v>
+        <v>1939.463720077401</v>
       </c>
       <c r="X130">
         <v>3.9</v>
@@ -8275,10 +8275,10 @@
         <v>44.1</v>
       </c>
       <c r="N131">
-        <v>567544</v>
+        <v>1588252</v>
       </c>
       <c r="O131">
-        <v>5389.876379628716</v>
+        <v>1926.011741209833</v>
       </c>
       <c r="Y131">
         <v>4.2</v>
@@ -8335,10 +8335,10 @@
         <v>9.491228070175438</v>
       </c>
       <c r="N132">
-        <v>878110</v>
+        <v>721976</v>
       </c>
       <c r="O132">
-        <v>9157.941487968479</v>
+        <v>11138.43119438873</v>
       </c>
       <c r="P132">
         <v>3.9</v>
@@ -8395,10 +8395,10 @@
         <v>9.429824561403509</v>
       </c>
       <c r="N133">
-        <v>883741</v>
+        <v>725274</v>
       </c>
       <c r="O133">
-        <v>9099.589133015217</v>
+        <v>11087.78199687291</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -8455,10 +8455,10 @@
         <v>9.710526315789474</v>
       </c>
       <c r="N134">
-        <v>890109</v>
+        <v>728993</v>
       </c>
       <c r="O134">
-        <v>9034.489034489035</v>
+        <v>11031.21703500582</v>
       </c>
       <c r="R134">
         <v>3.2</v>
@@ -8515,10 +8515,10 @@
         <v>10.39473684210526</v>
       </c>
       <c r="N135">
-        <v>896562</v>
+        <v>732761</v>
       </c>
       <c r="O135">
-        <v>8969.46334999699</v>
+        <v>10974.49236517773</v>
       </c>
       <c r="S135">
         <v>2.7</v>
@@ -8575,10 +8575,10 @@
         <v>10.39473684210526</v>
       </c>
       <c r="N136">
-        <v>903081</v>
+        <v>736571</v>
       </c>
       <c r="O136">
-        <v>8904.716188248894</v>
+        <v>10917.7255145804</v>
       </c>
       <c r="T136">
         <v>3.8</v>
@@ -8635,10 +8635,10 @@
         <v>10.39473684210526</v>
       </c>
       <c r="N137">
-        <v>909686</v>
+        <v>740426</v>
       </c>
       <c r="O137">
-        <v>8840.061295875719</v>
+        <v>10860.88278909709</v>
       </c>
       <c r="U137">
         <v>3</v>
@@ -8695,10 +8695,10 @@
         <v>10.20175438596491</v>
       </c>
       <c r="N138">
-        <v>915987</v>
+        <v>744429</v>
       </c>
       <c r="O138">
-        <v>8779.251233914893</v>
+        <v>10802.48082758732</v>
       </c>
       <c r="V138">
         <v>3.3</v>
@@ -8755,10 +8755,10 @@
         <v>12.82456140350877</v>
       </c>
       <c r="N139">
-        <v>922351</v>
+        <v>748470</v>
       </c>
       <c r="O139">
-        <v>8718.676512520722</v>
+        <v>10744.15808248828</v>
       </c>
       <c r="W139">
         <v>3.5</v>
@@ -8815,10 +8815,10 @@
         <v>18.69298245614035</v>
       </c>
       <c r="N140">
-        <v>928773</v>
+        <v>752540</v>
       </c>
       <c r="O140">
-        <v>8658.391232303265</v>
+        <v>10686.04991096819</v>
       </c>
       <c r="X140">
         <v>3.6</v>
@@ -8875,10 +8875,10 @@
         <v>18.26315789473684</v>
       </c>
       <c r="N141">
-        <v>935272</v>
+        <v>756661</v>
       </c>
       <c r="O141">
-        <v>8598.225970626727</v>
+        <v>10627.8505169422</v>
       </c>
       <c r="Y141">
         <v>3.7</v>
@@ -8935,10 +8935,10 @@
         <v>39.2051282051282</v>
       </c>
       <c r="N142">
-        <v>1080267</v>
+        <v>1252377</v>
       </c>
       <c r="O142">
-        <v>3532.326730336112</v>
+        <v>3046.890832393121</v>
       </c>
       <c r="P142">
         <v>4.4</v>
@@ -8995,10 +8995,10 @@
         <v>39.87179487179488</v>
       </c>
       <c r="N143">
-        <v>1087898</v>
+        <v>1260812</v>
       </c>
       <c r="O143">
-        <v>3507.549420993512</v>
+        <v>3026.50672741059</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -9055,10 +9055,10 @@
         <v>49.76923076923077</v>
       </c>
       <c r="N144">
-        <v>1096606</v>
+        <v>1270439</v>
       </c>
       <c r="O144">
-        <v>3479.696445213687</v>
+        <v>3003.572780747442</v>
       </c>
       <c r="R144">
         <v>3.2</v>
@@ -9115,10 +9115,10 @@
         <v>42.15384615384616</v>
       </c>
       <c r="N145">
-        <v>1105407</v>
+        <v>1280205</v>
       </c>
       <c r="O145">
-        <v>3451.991890769644</v>
+        <v>2980.66012865127</v>
       </c>
       <c r="S145">
         <v>3</v>
@@ -9175,10 +9175,10 @@
         <v>48.64102564102564</v>
       </c>
       <c r="N146">
-        <v>1114310</v>
+        <v>1289699</v>
       </c>
       <c r="O146">
-        <v>3424.411519236119</v>
+        <v>2958.718274574145</v>
       </c>
       <c r="T146">
         <v>3.9</v>
@@ -9235,10 +9235,10 @@
         <v>48.64102564102564</v>
       </c>
       <c r="N147">
-        <v>1123304</v>
+        <v>1299296</v>
       </c>
       <c r="O147">
-        <v>3396.993155904368</v>
+        <v>2936.864271112972</v>
       </c>
       <c r="U147">
         <v>3.8</v>
@@ -9295,10 +9295,10 @@
         <v>41</v>
       </c>
       <c r="N148">
-        <v>1130216</v>
+        <v>1306665</v>
       </c>
       <c r="O148">
-        <v>3376.218351182429</v>
+        <v>2920.30168405827</v>
       </c>
       <c r="V148">
         <v>3.8</v>
@@ -9355,10 +9355,10 @@
         <v>45.07692307692307</v>
       </c>
       <c r="N149">
-        <v>1137190</v>
+        <v>1314108</v>
       </c>
       <c r="O149">
-        <v>3355.513150836712</v>
+        <v>2903.76133468482</v>
       </c>
       <c r="W149">
         <v>3.8</v>
@@ -9415,10 +9415,10 @@
         <v>48.43589743589744</v>
       </c>
       <c r="N150">
-        <v>1144224</v>
+        <v>1321616</v>
       </c>
       <c r="O150">
-        <v>3334.885476969544</v>
+        <v>2887.265287345189</v>
       </c>
       <c r="X150">
         <v>3.6</v>
@@ -9475,10 +9475,10 @@
         <v>46.87179487179488</v>
       </c>
       <c r="N151">
-        <v>1151316</v>
+        <v>1329195</v>
       </c>
       <c r="O151">
-        <v>3314.342891091585</v>
+        <v>2870.802252491169</v>
       </c>
       <c r="Y151">
         <v>3.9</v>
@@ -9535,10 +9535,10 @@
         <v>22.15</v>
       </c>
       <c r="N152">
-        <v>730836</v>
+        <v>511841</v>
       </c>
       <c r="O152">
-        <v>4228.757204078617</v>
+        <v>6038.062601471942</v>
       </c>
       <c r="P152">
         <v>4.1</v>
@@ -9595,10 +9595,10 @@
         <v>22.95</v>
       </c>
       <c r="N153">
-        <v>735101</v>
+        <v>514203</v>
       </c>
       <c r="O153">
-        <v>4204.222276938815</v>
+        <v>6010.32666087129</v>
       </c>
       <c r="Q153">
         <v>3.3</v>
@@ -9655,10 +9655,10 @@
         <v>23.3</v>
       </c>
       <c r="N154">
-        <v>740028</v>
+        <v>517017</v>
       </c>
       <c r="O154">
-        <v>4176.23116963142</v>
+        <v>5977.613888905007</v>
       </c>
       <c r="R154">
         <v>3.1</v>
@@ -9715,10 +9715,10 @@
         <v>23.275</v>
       </c>
       <c r="N155">
-        <v>744989</v>
+        <v>519848</v>
       </c>
       <c r="O155">
-        <v>4148.420983397071</v>
+        <v>5945.060863944846</v>
       </c>
       <c r="S155">
         <v>3.2</v>
@@ -9775,10 +9775,10 @@
         <v>24.125</v>
       </c>
       <c r="N156">
-        <v>749997</v>
+        <v>522709</v>
       </c>
       <c r="O156">
-        <v>4120.720482881932</v>
+        <v>5912.521115955532</v>
       </c>
       <c r="T156">
         <v>3.9</v>
@@ -9835,10 +9835,10 @@
         <v>24.125</v>
       </c>
       <c r="N157">
-        <v>755038</v>
+        <v>525593</v>
       </c>
       <c r="O157">
-        <v>4093.208553741666</v>
+        <v>5880.078311545245</v>
       </c>
       <c r="U157">
         <v>4.3</v>
@@ -9895,10 +9895,10 @@
         <v>27.625</v>
       </c>
       <c r="N158">
-        <v>759178</v>
+        <v>527869</v>
       </c>
       <c r="O158">
-        <v>4070.88719641507</v>
+        <v>5854.72532010783</v>
       </c>
       <c r="V158">
         <v>3.5</v>
@@ -9955,10 +9955,10 @@
         <v>30.375</v>
       </c>
       <c r="N159">
-        <v>763348</v>
+        <v>530158</v>
       </c>
       <c r="O159">
-        <v>4048.648846921718</v>
+        <v>5829.447070495965</v>
       </c>
       <c r="W159">
         <v>3</v>
@@ -10015,10 +10015,10 @@
         <v>40.8</v>
       </c>
       <c r="N160">
-        <v>767539</v>
+        <v>532465</v>
       </c>
       <c r="O160">
-        <v>4026.541973762897</v>
+        <v>5804.189946757064</v>
       </c>
       <c r="X160">
         <v>3.3</v>
@@ -10075,10 +10075,10 @@
         <v>36.825</v>
       </c>
       <c r="N161">
-        <v>771761</v>
+        <v>534780</v>
       </c>
       <c r="O161">
-        <v>4004.514350945435</v>
+        <v>5779.064288118479</v>
       </c>
       <c r="Y161">
         <v>4.5</v>
@@ -10135,10 +10135,10 @@
         <v>10.84146341463415</v>
       </c>
       <c r="N162">
-        <v>390360</v>
+        <v>665903</v>
       </c>
       <c r="O162">
-        <v>12521.97971103597</v>
+        <v>7340.528575483216</v>
       </c>
       <c r="P162">
         <v>2.7</v>
@@ -10195,10 +10195,10 @@
         <v>11.13414634146342</v>
       </c>
       <c r="N163">
-        <v>392410</v>
+        <v>669102</v>
       </c>
       <c r="O163">
-        <v>12456.56328839734</v>
+        <v>7305.433252329241</v>
       </c>
       <c r="Q163">
         <v>1.9</v>
@@ -10255,10 +10255,10 @@
         <v>11.41463414634146</v>
       </c>
       <c r="N164">
-        <v>394760</v>
+        <v>672741</v>
       </c>
       <c r="O164">
-        <v>12382.4095653055</v>
+        <v>7265.916600890981</v>
       </c>
       <c r="R164">
         <v>2.4</v>
@@ -10315,10 +10315,10 @@
         <v>12.47560975609756</v>
       </c>
       <c r="N165">
-        <v>397136</v>
+        <v>676425</v>
       </c>
       <c r="O165">
-        <v>12308.32762580073</v>
+        <v>7226.344384078057</v>
       </c>
       <c r="S165">
         <v>2.2</v>
@@ -10375,10 +10375,10 @@
         <v>13.68292682926829</v>
       </c>
       <c r="N166">
-        <v>399525</v>
+        <v>680130</v>
       </c>
       <c r="O166">
-        <v>12234.7287403792</v>
+        <v>7186.978959904724</v>
       </c>
       <c r="T166">
         <v>2.1</v>
@@ -10435,10 +10435,10 @@
         <v>13.68292682926829</v>
       </c>
       <c r="N167">
-        <v>401940</v>
+        <v>683874</v>
       </c>
       <c r="O167">
-        <v>12161.21809225258</v>
+        <v>7147.632458610797</v>
       </c>
       <c r="U167">
         <v>2.9</v>
@@ -10495,10 +10495,10 @@
         <v>12.29268292682927</v>
       </c>
       <c r="N168">
-        <v>404107</v>
+        <v>687269</v>
       </c>
       <c r="O168">
-        <v>12096.00427609519</v>
+        <v>7112.324286414781</v>
       </c>
       <c r="V168">
         <v>2.9</v>
@@ -10555,10 +10555,10 @@
         <v>17.08536585365853</v>
       </c>
       <c r="N169">
-        <v>406293</v>
+        <v>690692</v>
       </c>
       <c r="O169">
-        <v>12030.92349609764</v>
+        <v>7077.076323455317</v>
       </c>
       <c r="W169">
         <v>3</v>
@@ -10615,10 +10615,10 @@
         <v>21.34146341463414</v>
       </c>
       <c r="N170">
-        <v>408493</v>
+        <v>694138</v>
       </c>
       <c r="O170">
-        <v>11966.12916255603</v>
+        <v>7041.942668460739</v>
       </c>
       <c r="X170">
         <v>2.8</v>
@@ -10675,10 +10675,10 @@
         <v>20.23170731707317</v>
       </c>
       <c r="N171">
-        <v>410709</v>
+        <v>697618</v>
       </c>
       <c r="O171">
-        <v>11901.5653418844</v>
+        <v>7006.814617742088</v>
       </c>
       <c r="Y171">
         <v>3.1</v>
@@ -10735,10 +10735,10 @@
         <v>10.8125</v>
       </c>
       <c r="N172">
-        <v>406185</v>
+        <v>224140</v>
       </c>
       <c r="O172">
-        <v>3959.614461390746</v>
+        <v>7175.586686892121</v>
       </c>
       <c r="P172">
         <v>3.2</v>
@@ -10795,10 +10795,10 @@
         <v>11.25</v>
       </c>
       <c r="N173">
-        <v>407804</v>
+        <v>224637</v>
       </c>
       <c r="O173">
-        <v>3943.894616041039</v>
+        <v>7159.711000414001</v>
       </c>
       <c r="Q173">
         <v>2.7</v>
@@ -10855,10 +10855,10 @@
         <v>11.875</v>
       </c>
       <c r="N174">
-        <v>409668</v>
+        <v>225218</v>
       </c>
       <c r="O174">
-        <v>3925.949793491315</v>
+        <v>7141.240931009067</v>
       </c>
       <c r="R174">
         <v>2.1</v>
@@ -10915,10 +10915,10 @@
         <v>20.75</v>
       </c>
       <c r="N175">
-        <v>411551</v>
+        <v>225813</v>
       </c>
       <c r="O175">
-        <v>3907.987102449028</v>
+        <v>7122.424306837959</v>
       </c>
       <c r="S175">
         <v>2</v>
@@ -10975,10 +10975,10 @@
         <v>20.8125</v>
       </c>
       <c r="N176">
-        <v>413456</v>
+        <v>226410</v>
       </c>
       <c r="O176">
-        <v>3889.981037885531</v>
+        <v>7103.64383198622</v>
       </c>
       <c r="T176">
         <v>3.2</v>
@@ -11035,10 +11035,10 @@
         <v>20.8125</v>
       </c>
       <c r="N177">
-        <v>415375</v>
+        <v>227016</v>
       </c>
       <c r="O177">
-        <v>3872.009629852543</v>
+        <v>7084.681255946717</v>
       </c>
       <c r="U177">
         <v>3</v>
@@ -11095,10 +11095,10 @@
         <v>14.9375</v>
       </c>
       <c r="N178">
-        <v>416874</v>
+        <v>227403</v>
       </c>
       <c r="O178">
-        <v>3858.086616099828</v>
+        <v>7072.624371710136</v>
       </c>
       <c r="V178">
         <v>3.2</v>
@@ -11155,10 +11155,10 @@
         <v>19.75</v>
       </c>
       <c r="N179">
-        <v>418388</v>
+        <v>227791</v>
       </c>
       <c r="O179">
-        <v>3844.125548533897</v>
+        <v>7060.577459162127</v>
       </c>
       <c r="W179">
         <v>3</v>
@@ -11215,10 +11215,10 @@
         <v>26.125</v>
       </c>
       <c r="N180">
-        <v>419906</v>
+        <v>228181</v>
       </c>
       <c r="O180">
-        <v>3830.228670226194</v>
+        <v>7048.50973569228</v>
       </c>
       <c r="X180">
         <v>3.1</v>
@@ -11275,10 +11275,10 @@
         <v>19.875</v>
       </c>
       <c r="N181">
-        <v>421448</v>
+        <v>228574</v>
       </c>
       <c r="O181">
-        <v>3816.214574514531</v>
+        <v>7036.390840603043</v>
       </c>
       <c r="Y181">
         <v>3.1</v>
@@ -11335,10 +11335,10 @@
         <v>17.25</v>
       </c>
       <c r="N182">
-        <v>374432</v>
+        <v>753465</v>
       </c>
       <c r="O182">
-        <v>9517.263481753696</v>
+        <v>4729.573371025861</v>
       </c>
       <c r="P182">
         <v>3</v>
@@ -11395,10 +11395,10 @@
         <v>18.97222222222222</v>
       </c>
       <c r="N183">
-        <v>377109</v>
+        <v>758238</v>
       </c>
       <c r="O183">
-        <v>9449.702871053196</v>
+        <v>4699.801381624239</v>
       </c>
       <c r="Q183">
         <v>2.6</v>
@@ -11455,10 +11455,10 @@
         <v>19.97222222222222</v>
       </c>
       <c r="N184">
-        <v>380141</v>
+        <v>763676</v>
       </c>
       <c r="O184">
-        <v>9374.332155700122</v>
+        <v>4666.334937853226</v>
       </c>
       <c r="R184">
         <v>2.4</v>
@@ -11515,10 +11515,10 @@
         <v>26.94444444444444</v>
       </c>
       <c r="N185">
-        <v>383211</v>
+        <v>769169</v>
       </c>
       <c r="O185">
-        <v>9299.232015782429</v>
+        <v>4633.010430737589</v>
       </c>
       <c r="S185">
         <v>2.7</v>
@@ -11575,10 +11575,10 @@
         <v>29.05555555555556</v>
       </c>
       <c r="N186">
-        <v>386308</v>
+        <v>774714</v>
       </c>
       <c r="O186">
-        <v>9224.680824626981</v>
+        <v>4599.849751004887</v>
       </c>
       <c r="T186">
         <v>3.2</v>
@@ -11635,10 +11635,10 @@
         <v>29.05555555555556</v>
       </c>
       <c r="N187">
-        <v>389447</v>
+        <v>780316</v>
       </c>
       <c r="O187">
-        <v>9150.328542779891</v>
+        <v>4566.82677274335</v>
       </c>
       <c r="U187">
         <v>3.3</v>
@@ -11695,10 +11695,10 @@
         <v>27.30555555555555</v>
       </c>
       <c r="N188">
-        <v>391919</v>
+        <v>784839</v>
       </c>
       <c r="O188">
-        <v>9092.613524733428</v>
+        <v>4540.508308073376</v>
       </c>
       <c r="V188">
         <v>2.7</v>
@@ -11755,10 +11755,10 @@
         <v>23.88888888888889</v>
       </c>
       <c r="N189">
-        <v>394418</v>
+        <v>789404</v>
       </c>
       <c r="O189">
-        <v>9035.003473472307</v>
+        <v>4514.251257911032</v>
       </c>
       <c r="W189">
         <v>2.9</v>
@@ -11815,10 +11815,10 @@
         <v>35.16666666666667</v>
       </c>
       <c r="N190">
-        <v>396935</v>
+        <v>794003</v>
       </c>
       <c r="O190">
-        <v>8977.711716024036</v>
+        <v>4488.103949229411</v>
       </c>
       <c r="X190">
         <v>2.7</v>
@@ -11875,10 +11875,10 @@
         <v>31.27777777777778</v>
       </c>
       <c r="N191">
-        <v>399472</v>
+        <v>798636</v>
       </c>
       <c r="O191">
-        <v>8920.695317819522</v>
+        <v>4462.067825642721</v>
       </c>
       <c r="Y191">
         <v>3.5</v>
@@ -11935,10 +11935,10 @@
         <v>8.731707317073171</v>
       </c>
       <c r="N192">
-        <v>713881</v>
+        <v>364209</v>
       </c>
       <c r="O192">
-        <v>4285.016690456813</v>
+        <v>8399.001672116834</v>
       </c>
       <c r="P192">
         <v>3.9</v>
@@ -11995,10 +11995,10 @@
         <v>10.53658536585366</v>
       </c>
       <c r="N193">
-        <v>717453</v>
+        <v>365102</v>
       </c>
       <c r="O193">
-        <v>4263.682777826562</v>
+        <v>8378.458622521925</v>
       </c>
       <c r="Q193">
         <v>3.9</v>
@@ -12055,10 +12055,10 @@
         <v>10.19512195121951</v>
       </c>
       <c r="N194">
-        <v>721569</v>
+        <v>366155</v>
       </c>
       <c r="O194">
-        <v>4239.361724242588</v>
+        <v>8354.36358919037</v>
       </c>
       <c r="R194">
         <v>3.2</v>
@@ -12115,10 +12115,10 @@
         <v>11.04878048780488</v>
       </c>
       <c r="N195">
-        <v>725723</v>
+        <v>367225</v>
       </c>
       <c r="O195">
-        <v>4215.095842353075</v>
+        <v>8330.021104227653</v>
       </c>
       <c r="S195">
         <v>3.3</v>
@@ -12175,10 +12175,10 @@
         <v>11.21951219512195</v>
       </c>
       <c r="N196">
-        <v>729915</v>
+        <v>368313</v>
       </c>
       <c r="O196">
-        <v>4190.887980107273</v>
+        <v>8305.41414503425</v>
       </c>
       <c r="T196">
         <v>2.9</v>
@@ -12235,10 +12235,10 @@
         <v>11.21951219512195</v>
       </c>
       <c r="N197">
-        <v>734147</v>
+        <v>369412</v>
       </c>
       <c r="O197">
-        <v>4166.729551438609</v>
+        <v>8280.70555369073</v>
       </c>
       <c r="U197">
         <v>3.3</v>
@@ -12295,10 +12295,10 @@
         <v>11.21951219512195</v>
       </c>
       <c r="N198">
-        <v>737476</v>
+        <v>370308</v>
       </c>
       <c r="O198">
-        <v>4147.92074589546</v>
+        <v>8260.669496743252</v>
       </c>
       <c r="V198">
         <v>3.2</v>
@@ -12355,10 +12355,10 @@
         <v>17.95121951219512</v>
       </c>
       <c r="N199">
-        <v>740824</v>
+        <v>371211</v>
       </c>
       <c r="O199">
-        <v>4129.175080720926</v>
+        <v>8240.574767450318</v>
       </c>
       <c r="W199">
         <v>3</v>
@@ -12415,10 +12415,10 @@
         <v>14.90243902439025</v>
       </c>
       <c r="N200">
-        <v>744206</v>
+        <v>372128</v>
       </c>
       <c r="O200">
-        <v>4110.41028962411</v>
+        <v>8220.268294780291</v>
       </c>
       <c r="X200">
         <v>3.7</v>
@@ -12475,10 +12475,10 @@
         <v>15.07317073170732</v>
       </c>
       <c r="N201">
-        <v>747612</v>
+        <v>373055</v>
       </c>
       <c r="O201">
-        <v>4091.683921606395</v>
+        <v>8199.841846376539</v>
       </c>
       <c r="Y201">
         <v>3.4</v>
@@ -12535,10 +12535,10 @@
         <v>6.289473684210527</v>
       </c>
       <c r="N202">
-        <v>1165366</v>
+        <v>447838</v>
       </c>
       <c r="O202">
-        <v>2219.004158350252</v>
+        <v>5774.302314676289</v>
       </c>
       <c r="P202">
         <v>3.3</v>
@@ -12595,10 +12595,10 @@
         <v>6.631578947368421</v>
       </c>
       <c r="N203">
-        <v>1169087</v>
+        <v>449452</v>
       </c>
       <c r="O203">
-        <v>2211.941455169718</v>
+        <v>5753.566565506439</v>
       </c>
       <c r="Q203">
         <v>3.1</v>
@@ -12655,10 +12655,10 @@
         <v>7.078947368421053</v>
       </c>
       <c r="N204">
-        <v>1173400</v>
+        <v>451350</v>
       </c>
       <c r="O204">
-        <v>2203.811147093915</v>
+        <v>5729.371884346959</v>
       </c>
       <c r="R204">
         <v>3.5</v>
@@ -12715,10 +12715,10 @@
         <v>9.131578947368421</v>
       </c>
       <c r="N205">
-        <v>1177755</v>
+        <v>453270</v>
       </c>
       <c r="O205">
-        <v>2195.6620859177</v>
+        <v>5705.102918790125</v>
       </c>
       <c r="S205">
         <v>3</v>
@@ -12775,10 +12775,10 @@
         <v>11.02631578947368</v>
       </c>
       <c r="N206">
-        <v>1182139</v>
+        <v>455197</v>
       </c>
       <c r="O206">
-        <v>2187.519403386573</v>
+        <v>5680.951324371646</v>
       </c>
       <c r="T206">
         <v>3.1</v>
@@ -12835,10 +12835,10 @@
         <v>11.02631578947368</v>
       </c>
       <c r="N207">
-        <v>1186553</v>
+        <v>457138</v>
       </c>
       <c r="O207">
-        <v>2179.381789098338</v>
+        <v>5656.830103819853</v>
       </c>
       <c r="U207">
         <v>3.4</v>
@@ -12895,10 +12895,10 @@
         <v>6.789473684210527</v>
       </c>
       <c r="N208">
-        <v>1190386</v>
+        <v>458835</v>
       </c>
       <c r="O208">
-        <v>2172.36425831621</v>
+        <v>5635.908333060905</v>
       </c>
       <c r="V208">
         <v>3</v>
@@ -12955,10 +12955,10 @@
         <v>6.973684210526315</v>
       </c>
       <c r="N209">
-        <v>1194242</v>
+        <v>460545</v>
       </c>
       <c r="O209">
-        <v>2165.350071426059</v>
+        <v>5614.9822492916</v>
       </c>
       <c r="W209">
         <v>3</v>
@@ -13015,10 +13015,10 @@
         <v>9.368421052631579</v>
       </c>
       <c r="N210">
-        <v>1198114</v>
+        <v>462253</v>
       </c>
       <c r="O210">
-        <v>2158.352210223735</v>
+        <v>5594.235191550947</v>
       </c>
       <c r="X210">
         <v>3.4</v>
@@ -13075,10 +13075,10 @@
         <v>9.131578947368421</v>
       </c>
       <c r="N211">
-        <v>1202017</v>
+        <v>463981</v>
       </c>
       <c r="O211">
-        <v>2151.34394937842</v>
+        <v>5573.400634939793</v>
       </c>
       <c r="Y211">
         <v>3.5</v>
@@ -13135,10 +13135,10 @@
         <v>4.042553191489361</v>
       </c>
       <c r="N212">
-        <v>134266</v>
+        <v>484232</v>
       </c>
       <c r="O212">
-        <v>21608.68723280652</v>
+        <v>5991.574286705546</v>
       </c>
       <c r="P212">
         <v>3.2</v>
@@ -13195,10 +13195,10 @@
         <v>4.212765957446808</v>
       </c>
       <c r="N213">
-        <v>134784</v>
+        <v>486259</v>
       </c>
       <c r="O213">
-        <v>21525.64102564103</v>
+        <v>5966.598047542565</v>
       </c>
       <c r="Q213">
         <v>3.2</v>
@@ -13255,10 +13255,10 @@
         <v>4.446808510638298</v>
       </c>
       <c r="N214">
-        <v>135354</v>
+        <v>488545</v>
       </c>
       <c r="O214">
-        <v>21434.99268584601</v>
+        <v>5938.679139076236</v>
       </c>
       <c r="R214">
         <v>2.8</v>
@@ -13315,10 +13315,10 @@
         <v>4.957446808510638</v>
       </c>
       <c r="N215">
-        <v>135935</v>
+        <v>490849</v>
       </c>
       <c r="O215">
-        <v>21343.3773494685</v>
+        <v>5910.803526135329</v>
       </c>
       <c r="S215">
         <v>2.6</v>
@@ -13375,10 +13375,10 @@
         <v>6.765957446808511</v>
       </c>
       <c r="N216">
-        <v>136517</v>
+        <v>493169</v>
       </c>
       <c r="O216">
-        <v>21252.38614971029</v>
+        <v>5882.997512009068</v>
       </c>
       <c r="T216">
         <v>3.8</v>
@@ -13435,10 +13435,10 @@
         <v>6.765957446808511</v>
       </c>
       <c r="N217">
-        <v>137116</v>
+        <v>495520</v>
       </c>
       <c r="O217">
-        <v>21159.54374398319</v>
+        <v>5855.08556667743</v>
       </c>
       <c r="U217">
         <v>3.4</v>
@@ -13495,10 +13495,10 @@
         <v>5.787234042553192</v>
       </c>
       <c r="N218">
-        <v>137728</v>
+        <v>497602</v>
       </c>
       <c r="O218">
-        <v>21065.52044609665</v>
+        <v>5830.587497638675</v>
       </c>
       <c r="V218">
         <v>3.3</v>
@@ -13555,10 +13555,10 @@
         <v>6.340425531914893</v>
       </c>
       <c r="N219">
-        <v>138348</v>
+        <v>499701</v>
       </c>
       <c r="O219">
-        <v>20971.11631537861</v>
+        <v>5806.09604543517</v>
       </c>
       <c r="W219">
         <v>3</v>
@@ -13615,10 +13615,10 @@
         <v>8.957446808510639</v>
       </c>
       <c r="N220">
-        <v>138974</v>
+        <v>501816</v>
       </c>
       <c r="O220">
-        <v>20876.65318692705</v>
+        <v>5781.625137500598</v>
       </c>
       <c r="X220">
         <v>3.8</v>
@@ -13675,10 +13675,10 @@
         <v>8.148936170212766</v>
       </c>
       <c r="N221">
-        <v>139607</v>
+        <v>503945</v>
       </c>
       <c r="O221">
-        <v>20781.99517216186</v>
+        <v>5757.199694411096</v>
       </c>
       <c r="Y221">
         <v>4.1</v>
